--- a/input_data/Biogeographic_data/Taxa_bioregions_binary_table_for_analyses_8_regions.xlsx
+++ b/input_data/Biogeographic_data/Taxa_bioregions_binary_table_for_analyses_8_regions.xlsx
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>47</v>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -6117,16 +6117,16 @@
         <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -6845,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
@@ -10186,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="b">
         <v>0</v>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="b">
         <v>0</v>
@@ -10650,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="b">
         <v>0</v>
@@ -10725,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="D199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
@@ -11125,7 +11125,7 @@
         <v>220</v>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="F231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="D233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233" t="b">
         <v>0</v>
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="b">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D246" t="b">
         <v>1</v>
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="b">
         <v>0</v>
@@ -13854,7 +13854,7 @@
         <v>0</v>
       </c>
       <c r="C307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D307" t="b">
         <v>1</v>
@@ -14756,7 +14756,7 @@
         <v>0</v>
       </c>
       <c r="D338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E338" t="b">
         <v>0</v>
@@ -15362,7 +15362,7 @@
         <v>0</v>
       </c>
       <c r="C359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D359" t="b">
         <v>1</v>
@@ -15446,7 +15446,7 @@
         <v>369</v>
       </c>
       <c r="B362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="b">
         <v>0</v>
@@ -16160,7 +16160,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="b">
         <v>0</v>
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="b">
         <v>0</v>
@@ -16612,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="D402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E402" t="b">
         <v>0</v>
@@ -18091,7 +18091,7 @@
         <v>0</v>
       </c>
       <c r="D453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E453" t="b">
         <v>0</v>
@@ -18100,13 +18100,13 @@
         <v>0</v>
       </c>
       <c r="G453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H453" t="b">
         <v>0</v>
       </c>
       <c r="I453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -20089,7 +20089,7 @@
         <v>0</v>
       </c>
       <c r="C522" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D522" t="b">
         <v>1</v>
@@ -20127,7 +20127,7 @@
         <v>0</v>
       </c>
       <c r="F523" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G523" t="b">
         <v>1</v>
@@ -20310,7 +20310,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="F530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G530" t="b">
         <v>1</v>
@@ -20339,7 +20339,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -21284,7 +21284,7 @@
         <v>0</v>
       </c>
       <c r="E563" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F563" t="b">
         <v>0</v>
@@ -21296,7 +21296,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -21571,7 +21571,7 @@
         <v>1</v>
       </c>
       <c r="D573" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E573" t="b">
         <v>0</v>
@@ -21626,7 +21626,7 @@
         <v>0</v>
       </c>
       <c r="C575" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D575" t="b">
         <v>1</v>
@@ -23346,7 +23346,7 @@
         <v>0</v>
       </c>
       <c r="F634" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G634" t="b">
         <v>1</v>
@@ -23410,7 +23410,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="b">
         <v>0</v>
@@ -25463,7 +25463,7 @@
         <v>0</v>
       </c>
       <c r="F707" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G707" t="b">
         <v>1</v>
@@ -26020,7 +26020,7 @@
         <v>0</v>
       </c>
       <c r="H726" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="b">
         <v>0</v>
@@ -26890,7 +26890,7 @@
         <v>0</v>
       </c>
       <c r="H756" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756" t="b">
         <v>0</v>
@@ -27400,7 +27400,7 @@
         <v>0</v>
       </c>
       <c r="D774" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E774" t="b">
         <v>0</v>
@@ -28369,7 +28369,7 @@
         <v>0</v>
       </c>
       <c r="H807" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I807" t="b">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="H832" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="b">
         <v>0</v>
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="F878" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G878" t="b">
         <v>1</v>
@@ -31208,7 +31208,7 @@
         <v>1</v>
       </c>
       <c r="G905" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H905" t="b">
         <v>0</v>
@@ -31237,7 +31237,7 @@
         <v>1</v>
       </c>
       <c r="G906" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H906" t="b">
         <v>0</v>
@@ -31814,7 +31814,7 @@
         <v>0</v>
       </c>
       <c r="F926" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G926" t="b">
         <v>1</v>
@@ -32243,7 +32243,7 @@
         <v>0</v>
       </c>
       <c r="D941" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E941" t="b">
         <v>0</v>
@@ -35143,7 +35143,7 @@
         <v>1</v>
       </c>
       <c r="D1041" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1041" t="b">
         <v>0</v>
@@ -35349,7 +35349,7 @@
         <v>1</v>
       </c>
       <c r="E1048" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1048" t="b">
         <v>0</v>
@@ -35575,7 +35575,7 @@
         <v>0</v>
       </c>
       <c r="C1056" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1056" t="b">
         <v>1</v>
@@ -36071,7 +36071,7 @@
         <v>1</v>
       </c>
       <c r="D1073" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1073" t="b">
         <v>0</v>
@@ -37585,7 +37585,7 @@
         <v>0</v>
       </c>
       <c r="F1125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1125" t="b">
         <v>1</v>
@@ -37991,7 +37991,7 @@
         <v>0</v>
       </c>
       <c r="F1139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1139" t="b">
         <v>1</v>
@@ -38687,7 +38687,7 @@
         <v>0</v>
       </c>
       <c r="F1163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1163" t="b">
         <v>1</v>
@@ -39296,7 +39296,7 @@
         <v>0</v>
       </c>
       <c r="F1184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1184" t="b">
         <v>1</v>
@@ -39667,7 +39667,7 @@
         <v>0</v>
       </c>
       <c r="D1197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1197" t="b">
         <v>0</v>
@@ -39740,7 +39740,7 @@
         <v>0</v>
       </c>
       <c r="I1199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200">
@@ -39943,7 +39943,7 @@
         <v>0</v>
       </c>
       <c r="I1206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207">
@@ -39963,7 +39963,7 @@
         <v>0</v>
       </c>
       <c r="F1207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1207" t="b">
         <v>1</v>
@@ -40140,7 +40140,7 @@
         <v>1</v>
       </c>
       <c r="G1213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1213" t="b">
         <v>0</v>
@@ -40299,19 +40299,19 @@
         <v>1226</v>
       </c>
       <c r="B1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1219" t="b">
         <v>0</v>
       </c>
       <c r="D1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1219" t="b">
         <v>0</v>
       </c>
       <c r="F1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1219" t="b">
         <v>1</v>
@@ -40389,7 +40389,7 @@
         <v>0</v>
       </c>
       <c r="C1222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1222" t="b">
         <v>1</v>
@@ -40427,7 +40427,7 @@
         <v>0</v>
       </c>
       <c r="F1223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1223" t="b">
         <v>1</v>
@@ -40688,7 +40688,7 @@
         <v>0</v>
       </c>
       <c r="F1232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1232" t="b">
         <v>1</v>
@@ -40766,7 +40766,7 @@
         <v>0</v>
       </c>
       <c r="C1235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1235" t="b">
         <v>1</v>
@@ -40862,7 +40862,7 @@
         <v>0</v>
       </c>
       <c r="F1238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1238" t="b">
         <v>1</v>
@@ -40885,7 +40885,7 @@
         <v>1</v>
       </c>
       <c r="D1239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1239" t="b">
         <v>0</v>
@@ -40972,7 +40972,7 @@
         <v>1</v>
       </c>
       <c r="D1242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1242" t="b">
         <v>0</v>
@@ -41158,7 +41158,7 @@
         <v>0</v>
       </c>
       <c r="H1248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1248" t="b">
         <v>0</v>
@@ -41230,7 +41230,7 @@
         <v>0</v>
       </c>
       <c r="C1251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1251" t="b">
         <v>0</v>
@@ -41248,7 +41248,7 @@
         <v>0</v>
       </c>
       <c r="I1251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252">
@@ -41262,7 +41262,7 @@
         <v>1</v>
       </c>
       <c r="D1252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1252" t="b">
         <v>0</v>
@@ -41410,7 +41410,7 @@
         <v>1</v>
       </c>
       <c r="E1257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1257" t="b">
         <v>0</v>
@@ -41567,7 +41567,7 @@
         <v>0</v>
       </c>
       <c r="I1262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263">
@@ -41610,7 +41610,7 @@
         <v>1</v>
       </c>
       <c r="D1264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1264" t="b">
         <v>0</v>
@@ -41674,7 +41674,7 @@
         <v>0</v>
       </c>
       <c r="F1266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1266" t="b">
         <v>1</v>
@@ -42248,7 +42248,7 @@
         <v>1</v>
       </c>
       <c r="D1286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1286" t="b">
         <v>0</v>
@@ -42474,7 +42474,7 @@
         <v>1301</v>
       </c>
       <c r="B1294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1294" t="b">
         <v>1</v>
@@ -42483,7 +42483,7 @@
         <v>1</v>
       </c>
       <c r="E1294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1294" t="b">
         <v>0</v>
@@ -42495,7 +42495,7 @@
         <v>0</v>
       </c>
       <c r="I1294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295">
@@ -43742,7 +43742,7 @@
         <v>0</v>
       </c>
       <c r="I1337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338">
@@ -43797,7 +43797,7 @@
         <v>0</v>
       </c>
       <c r="H1339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1339" t="b">
         <v>0</v>
@@ -44835,7 +44835,7 @@
         <v>0</v>
       </c>
       <c r="F1375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1375" t="b">
         <v>0</v>
@@ -45447,7 +45447,7 @@
         <v>1</v>
       </c>
       <c r="G1396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1396" t="b">
         <v>0</v>
@@ -45499,7 +45499,7 @@
         <v>0</v>
       </c>
       <c r="E1398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1398" t="b">
         <v>0</v>
@@ -45725,7 +45725,7 @@
         <v>0</v>
       </c>
       <c r="C1406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1406" t="b">
         <v>1</v>
@@ -45879,7 +45879,7 @@
         <v>0</v>
       </c>
       <c r="F1411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1411" t="b">
         <v>0</v>
@@ -45989,7 +45989,7 @@
         <v>1</v>
       </c>
       <c r="D1415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1415" t="b">
         <v>0</v>
@@ -46256,7 +46256,7 @@
         <v>0</v>
       </c>
       <c r="F1424" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1424" t="b">
         <v>0</v>
@@ -46395,7 +46395,7 @@
         <v>1</v>
       </c>
       <c r="D1429" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1429" t="b">
         <v>0</v>
@@ -46740,7 +46740,7 @@
         <v>0</v>
       </c>
       <c r="C1441" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1441" t="b">
         <v>1</v>
@@ -46755,7 +46755,7 @@
         <v>0</v>
       </c>
       <c r="H1441" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1441" t="b">
         <v>0</v>
